--- a/projects/projects.xlsx
+++ b/projects/projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EMoses\OneDrive - Birkbeck, University of London\Documents\MoMappingNoProblems\Website_MoMappingNoProblems\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F926EA6-D582-42C7-A906-B8637D00D505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C0557E-EF8D-46A8-B0F2-AA739DD67F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25650" yWindow="1545" windowWidth="27030" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -36,9 +36,6 @@
     <t>project_name</t>
   </si>
   <si>
-    <t>dsplay_date</t>
-  </si>
-  <si>
     <t>p1</t>
   </si>
   <si>
@@ -49,6 +46,24 @@
   </si>
   <si>
     <t>tfl info app</t>
+  </si>
+  <si>
+    <t>display_date</t>
+  </si>
+  <si>
+    <t>Tfl Santandar Bike Analysis Calendar Heat Plot</t>
+  </si>
+  <si>
+    <t>Greggs vs Pret Locations in the UK</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>Sourdough Calculator</t>
   </si>
 </sst>
 </file>
@@ -374,20 +389,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -398,15 +415,18 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>45382</v>
@@ -414,19 +434,61 @@
       <c r="D2" s="2">
         <v>45352</v>
       </c>
+      <c r="E2" s="1">
+        <v>45382</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45382</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45352</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45382</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45352</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45578</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45656</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45656</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>